--- a/Databases/Database.xlsx
+++ b/Databases/Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remya\Documents\NetBeansProjects\InventorySystem\Databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remya\Documents\NetBeansProjects\stackgrow-inventory-system\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E539479F-4EC2-45B4-BE0A-176805DD66D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E683C141-B1E2-4511-A585-41D846602B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -65,105 +65,12 @@
     <t>Auxuiliary Horticultural Hardware Company</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>5 Haiden Lane</t>
-  </si>
-  <si>
-    <t>ByfieldProducts@gmail.com</t>
-  </si>
-  <si>
-    <t>876-555-2921</t>
-  </si>
-  <si>
-    <t>22 Bayfarm Road</t>
-  </si>
-  <si>
-    <t>JojaCorp2016@gmail.com</t>
-  </si>
-  <si>
-    <t>876-555-2016</t>
-  </si>
-  <si>
-    <t>93 Stuttgart Place</t>
-  </si>
-  <si>
-    <t>BensSupplies@outlook.com</t>
-  </si>
-  <si>
-    <t>876-555-1926</t>
-  </si>
-  <si>
-    <t>15b Athens Boulevard</t>
-  </si>
-  <si>
-    <t>TheOneEuclid1@yahoo.com</t>
-  </si>
-  <si>
-    <t>876-555-9265</t>
-  </si>
-  <si>
-    <t>27 Cincinnati Avenue</t>
-  </si>
-  <si>
-    <t>EarlyJamaicanOldIrish@gmail.com</t>
-  </si>
-  <si>
-    <t>876-555-6414</t>
-  </si>
-  <si>
-    <t>90 Veevee Road</t>
-  </si>
-  <si>
-    <t>AHHCO@yahoo.com</t>
-  </si>
-  <si>
-    <t>876-555-1866</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Weight (kg)</t>
   </si>
   <si>
-    <t>93 New Stuttgart Place</t>
-  </si>
-  <si>
-    <t>BensSupplies@Outlook.com</t>
-  </si>
-  <si>
-    <t>Elmo's ltd.</t>
-  </si>
-  <si>
-    <t>55 Backyardigan Street</t>
-  </si>
-  <si>
-    <t>ElmosShop@Outlook.com</t>
-  </si>
-  <si>
-    <t>876-555-9256</t>
-  </si>
-  <si>
-    <t>Golden Road Herbs</t>
-  </si>
-  <si>
-    <t>5-7 Brickview Avenue</t>
-  </si>
-  <si>
-    <t>GoldenRoad@Gmail.com</t>
-  </si>
-  <si>
-    <t>876-555-5555</t>
-  </si>
-  <si>
     <t>Byfield Chicken Food</t>
   </si>
   <si>
@@ -221,9 +128,6 @@
     <t>Euclid Grape Seeds</t>
   </si>
   <si>
-    <t>Old Irish Potato Seeds</t>
-  </si>
-  <si>
     <t>Everlee's Ceramic Planters</t>
   </si>
   <si>
@@ -251,58 +155,43 @@
     <t>0.4</t>
   </si>
   <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>pass1</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>pass2</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>pass3</t>
-  </si>
-  <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>pass4</t>
-  </si>
-  <si>
-    <t>user5</t>
-  </si>
-  <si>
-    <t>pass5</t>
-  </si>
-  <si>
-    <t>Raheem</t>
-  </si>
-  <si>
-    <t>Power123</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>user6</t>
-  </si>
-  <si>
-    <t>pass6</t>
-  </si>
-  <si>
-    <t>User</t>
+    <t>Vitamin infused corn pellets</t>
+  </si>
+  <si>
+    <t>Almighty majestic hoe</t>
+  </si>
+  <si>
+    <t>Horse manure</t>
+  </si>
+  <si>
+    <t>Starfruit seeds</t>
+  </si>
+  <si>
+    <t>Wheelbarrow</t>
+  </si>
+  <si>
+    <t>Grape Seeds</t>
+  </si>
+  <si>
+    <t>Old Irish Mango Seeds</t>
+  </si>
+  <si>
+    <t>Mango Seeds</t>
+  </si>
+  <si>
+    <t>Multicoloured planters</t>
+  </si>
+  <si>
+    <t>Pruning sheers</t>
+  </si>
+  <si>
+    <t>Synthetic suede gloves</t>
+  </si>
+  <si>
+    <t>Multicoloured planters pot</t>
+  </si>
+  <si>
+    <t>Pruning shears</t>
   </si>
 </sst>
 </file>
@@ -310,23 +199,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -367,12 +243,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,34 +486,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -648,19 +522,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>70.0</v>
@@ -680,16 +554,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>9</v>
@@ -712,19 +586,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n" s="0">
         <v>100.0</v>
@@ -744,19 +618,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="G5" t="n" s="0">
         <v>1500.0</v>
@@ -776,16 +650,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>9</v>
@@ -808,16 +682,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>11</v>
@@ -840,22 +714,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>12</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>989.0</v>
+        <v>988.0</v>
       </c>
       <c r="H8" t="n" s="0">
         <v>500.0</v>
@@ -872,19 +746,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n" s="0">
         <v>30.0</v>
@@ -904,19 +778,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n" s="0">
         <v>9.0</v>
@@ -936,19 +810,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>54</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="G11" t="n" s="0">
         <v>49.0</v>
@@ -974,10 +848,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -988,88 +862,356 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="12.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>16</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>1.0</v>
+      <c r="C2" t="s" s="0">
+        <v>17</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>79</v>
+        <v>44</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="G2" s="0">
+        <v>70</v>
+      </c>
+      <c r="H2" s="0">
+        <v>3500</v>
+      </c>
+      <c r="I2" s="0">
+        <v>2000</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="0">
+        <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>2.0</v>
+        <v>21</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>22</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>82</v>
+        <v>45</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>2550</v>
+      </c>
+      <c r="I3" s="0">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="0">
+        <v>3</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>3.0</v>
+        <v>25</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>26</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>84</v>
+        <v>46</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G4" s="0">
+        <v>100</v>
+      </c>
+      <c r="H4" s="0">
+        <v>100</v>
+      </c>
+      <c r="I4" s="0">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="0">
+        <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>4.0</v>
+        <v>29</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>30</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>86</v>
+        <v>47</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1500</v>
+      </c>
+      <c r="H5" s="0">
+        <v>2200</v>
+      </c>
+      <c r="I5" s="0">
+        <v>1000</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="0">
+        <v>5</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>5.0</v>
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>22</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>81</v>
+        <v>48</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G6" s="0">
+        <v>5</v>
+      </c>
+      <c r="H6" s="0">
+        <v>6000</v>
+      </c>
+      <c r="I6" s="0">
+        <v>3500</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G7" s="0">
+        <v>314</v>
+      </c>
+      <c r="H7" s="0">
+        <v>3140</v>
+      </c>
+      <c r="I7" s="0">
+        <v>314</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G8" s="0">
+        <v>989</v>
+      </c>
+      <c r="H8" s="0">
+        <v>500</v>
+      </c>
+      <c r="I8" s="0">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="0">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G9" s="0">
+        <v>30</v>
+      </c>
+      <c r="H9" s="0">
+        <v>1500</v>
+      </c>
+      <c r="I9" s="0">
+        <v>700</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="0">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G10" s="0">
+        <v>9</v>
+      </c>
+      <c r="H10" s="0">
+        <v>5000</v>
+      </c>
+      <c r="I10" s="0">
+        <v>2000</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="0">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G11" s="0">
+        <v>49</v>
+      </c>
+      <c r="H11" s="0">
+        <v>700</v>
+      </c>
+      <c r="I11" s="0">
+        <v>255.55000305175781</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/Database.xlsx
+++ b/Databases/Database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -192,6 +192,84 @@
   </si>
   <si>
     <t>Pruning shears</t>
+  </si>
+  <si>
+    <t>5 Haiden Lane</t>
+  </si>
+  <si>
+    <t>ByfieldProducts@gmail.com</t>
+  </si>
+  <si>
+    <t>876-555-2921</t>
+  </si>
+  <si>
+    <t>22 Bayfarm Road</t>
+  </si>
+  <si>
+    <t>JojaCorp2016@gmail.com</t>
+  </si>
+  <si>
+    <t>876-555-2016</t>
+  </si>
+  <si>
+    <t>93 New Stuttgart Place</t>
+  </si>
+  <si>
+    <t>BensSupplies@Outlook.com</t>
+  </si>
+  <si>
+    <t>876-555-1926</t>
+  </si>
+  <si>
+    <t>15b Athens Boulevard</t>
+  </si>
+  <si>
+    <t>TheOneEuclid1@yahoo.com</t>
+  </si>
+  <si>
+    <t>876-555-9265</t>
+  </si>
+  <si>
+    <t>27 Cincinnati Avenue</t>
+  </si>
+  <si>
+    <t>EarlyJamaicanOldIrish@gmail.com</t>
+  </si>
+  <si>
+    <t>876-555-6414</t>
+  </si>
+  <si>
+    <t>90 Veevee Road</t>
+  </si>
+  <si>
+    <t>AHHCO@yahoo.com</t>
+  </si>
+  <si>
+    <t>876-555-1866</t>
+  </si>
+  <si>
+    <t>Elmo's ltd.</t>
+  </si>
+  <si>
+    <t>55 Backyardigan Street</t>
+  </si>
+  <si>
+    <t>ElmosShop@Outlook.com</t>
+  </si>
+  <si>
+    <t>876-555-9256</t>
+  </si>
+  <si>
+    <t>Golden Road Herbs</t>
+  </si>
+  <si>
+    <t>5-7 Brickview Avenue</t>
+  </si>
+  <si>
+    <t>GoldenRoad@Gmail.com</t>
+  </si>
+  <si>
+    <t>876-555-5555</t>
   </si>
 </sst>
 </file>
@@ -848,7 +926,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -894,324 +972,116 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="0">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="G2" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="H2" s="0">
-        <v>3500</v>
-      </c>
-      <c r="I2" s="0">
-        <v>2000</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="0">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="G3" s="0">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0">
-        <v>2550</v>
-      </c>
-      <c r="I3" s="0">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="G4" s="0">
-        <v>100</v>
-      </c>
-      <c r="H4" s="0">
-        <v>100</v>
-      </c>
-      <c r="I4" s="0">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1500</v>
-      </c>
-      <c r="H5" s="0">
-        <v>2200</v>
-      </c>
-      <c r="I5" s="0">
-        <v>1000</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="0">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>22</v>
-      </c>
       <c r="D6" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="G6" s="0">
-        <v>5</v>
-      </c>
-      <c r="H6" s="0">
-        <v>6000</v>
-      </c>
-      <c r="I6" s="0">
-        <v>3500</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="0">
-        <v>6</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>13</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G7" s="0">
-        <v>314</v>
-      </c>
-      <c r="H7" s="0">
-        <v>3140</v>
-      </c>
-      <c r="I7" s="0">
-        <v>314</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="0">
-        <v>7</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>75</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="G8" s="0">
-        <v>989</v>
-      </c>
-      <c r="H8" s="0">
-        <v>500</v>
-      </c>
-      <c r="I8" s="0">
-        <v>100</v>
-      </c>
-      <c r="J8" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="0">
-        <v>8</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>79</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="G9" s="0">
-        <v>30</v>
-      </c>
-      <c r="H9" s="0">
-        <v>1500</v>
-      </c>
-      <c r="I9" s="0">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="0">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="G10" s="0">
-        <v>9</v>
-      </c>
-      <c r="H10" s="0">
-        <v>5000</v>
-      </c>
-      <c r="I10" s="0">
-        <v>2000</v>
-      </c>
-      <c r="J10" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="0">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="G11" s="0">
-        <v>49</v>
-      </c>
-      <c r="H11" s="0">
-        <v>700</v>
-      </c>
-      <c r="I11" s="0">
-        <v>255.55000305175781</v>
-      </c>
-      <c r="J11" t="s" s="0">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/Database.xlsx
+++ b/Databases/Database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -711,7 +711,7 @@
         <v>28</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>1500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H5" t="n" s="0">
         <v>2200.0</v>
